--- a/biology/Botanique/Lodge_(hôtellerie)/Lodge_(hôtellerie).xlsx
+++ b/biology/Botanique/Lodge_(hôtellerie)/Lodge_(hôtellerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lodge_(h%C3%B4tellerie)</t>
+          <t>Lodge_(hôtellerie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un lodge est, dans le monde de l'hôtellerie, un hébergement touristique situé au calme dans la nature et présentant généralement une architecture inspirée de cet environnement et faisant un ample emploi de bois massif ou de pierre naturelle. Un lodge offre des prestations plus rustiques qu'un hôtel en ville mais néanmoins supérieures à celles que propose un refuge de montagne, par exemple.
 Aux États-Unis, où les lodges sont associés au style rustique, ils sont souvent situés dans les aires protégées relevant du National Park Service, par exemple les parcs nationaux, et ils peuvent alors employer une variante de ce style architectural, le style rustique du National Park Service. Des architectes tels que Gilbert Stanley Underwood ont dessiné plusieurs lodges selon ces principes.
